--- a/Quiniela Semana 12 NFL 2025.xlsx
+++ b/Quiniela Semana 12 NFL 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_C09132A136CC9A1BDE6008C81DE7A20E59B88AAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A64D1FD-6A1F-4BDC-AC9E-93AF0BBB75F1}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_C09132A136CC9A1BDE6008C81DE7A20E59B88AAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F429DE5-E5B3-4222-94D8-93A7519CAA5E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,6 +267,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,7 +563,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,7 +686,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -732,7 +736,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1032,7 +1036,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1682,7 +1686,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">

--- a/Quiniela Semana 12 NFL 2025.xlsx
+++ b/Quiniela Semana 12 NFL 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_C09132A136CC9A1BDE6008C81DE7A20E59B88AAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F429DE5-E5B3-4222-94D8-93A7519CAA5E}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_C09132A136CC9A1BDE6008C81DE7A20E59B88AAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D5759FF-1F1C-4FC1-A3C6-88F81A1AFF33}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,7 +636,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1186,7 +1186,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1386,7 +1386,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1586,7 +1586,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1941,7 +1941,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Quiniela Semana 12 NFL 2025.xlsx
+++ b/Quiniela Semana 12 NFL 2025.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_C09132A136CC9A1BDE6008C81DE7A20E59B88AAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D5759FF-1F1C-4FC1-A3C6-88F81A1AFF33}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="12" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="53">
   <si>
     <t>Raúl Humberto García Robledo</t>
   </si>
@@ -179,19 +173,13 @@
   </si>
   <si>
     <t>Carolina - Panthers</t>
-  </si>
-  <si>
-    <t>lalo</t>
-  </si>
-  <si>
-    <t>cynthia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,37 +187,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -241,42 +205,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +260,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -348,7 +294,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -383,10 +328,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,33 +503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +560,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -685,8 +610,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -735,8 +660,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -785,8 +710,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -835,7 +760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -885,8 +810,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -935,8 +860,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -985,8 +910,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1035,8 +960,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1085,8 +1010,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1135,7 +1060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1110,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1235,8 +1160,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1285,7 +1210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1335,8 +1260,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1385,8 +1310,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1435,8 +1360,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1485,8 +1410,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1535,7 +1460,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1585,8 +1510,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1635,8 +1560,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1685,8 +1610,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1735,7 +1660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1785,8 +1710,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -1835,7 +1760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1885,7 +1810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1933,16 +1858,6 @@
       </c>
       <c r="P27">
         <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Quiniela Semana 12 NFL 2025.xlsx
+++ b/Quiniela Semana 12 NFL 2025.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_C09132A136CC9A1BDE6008AE1DE1AB8E58B88AAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598E8864-8384-4B0E-96FA-F594A4C39B3D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="55">
   <si>
     <t>Raúl Humberto García Robledo</t>
   </si>
@@ -173,13 +179,19 @@
   </si>
   <si>
     <t>Carolina - Panthers</t>
+  </si>
+  <si>
+    <t>lalo</t>
+  </si>
+  <si>
+    <t>cynthia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +199,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,24 +241,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +314,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -294,6 +348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -328,9 +383,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,15 +559,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -560,8 +635,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -610,8 +685,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -660,8 +735,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -710,8 +785,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -760,8 +835,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -810,8 +885,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -860,8 +935,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -910,8 +985,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -960,8 +1035,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1010,8 +1085,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1060,8 +1135,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1110,8 +1185,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1160,8 +1235,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1210,8 +1285,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1260,8 +1335,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1310,8 +1385,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1360,8 +1435,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1410,8 +1485,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1460,8 +1535,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1510,8 +1585,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1560,8 +1635,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1610,8 +1685,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1660,8 +1735,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1710,8 +1785,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -1760,8 +1835,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -1810,8 +1885,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -1858,6 +1933,16 @@
       </c>
       <c r="P27">
         <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
